--- a/working/SmeltzPFAS/SmeltzPFAS-PPB-UC-Level4.xlsx
+++ b/working/SmeltzPFAS/SmeltzPFAS-PPB-UC-Level4.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitroTKstats\working\SmeltzPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2AFA9E68-534A-4B72-BCEE-1CBE28FED327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0E15C7-BFFE-407F-A25F-520710FD8756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="27375" windowHeight="13740"/>
+    <workbookView xWindow="3240" yWindow="2655" windowWidth="18180" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SmeltzPFAS-PPB-UC-Level4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
   <si>
     <t>Compound</t>
   </si>
@@ -452,12 +463,24 @@
   </si>
   <si>
     <t>Uncertain</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Mean Uncertain Fup</t>
+  </si>
+  <si>
+    <t>Mean CV for Certain Fup</t>
+  </si>
+  <si>
+    <t>Number of Uncertain Fup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -890,6 +913,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -935,10 +982,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -986,7 +1037,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1005,19 +1056,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H71" totalsRowCount="1">
-  <autoFilter ref="A1:H70"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Compound"/>
-    <tableColumn id="2" name="DTXSID"/>
-    <tableColumn id="3" name="Lab.Compound.Name"/>
-    <tableColumn id="4" name="Fup.Med"/>
-    <tableColumn id="5" name="Fup.Low"/>
-    <tableColumn id="6" name="Fup.High"/>
-    <tableColumn id="7" name="Fup.point"/>
-    <tableColumn id="8" name="Uncertain" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I71" totalsRowCount="1">
+  <autoFilter ref="A1:I70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Compound"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DTXSID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Lab.Compound.Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fup.Med"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fup.Low"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fup.High"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Fup.point"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Uncertain" dataDxfId="1">
       <calculatedColumnFormula>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</calculatedColumnFormula>
-      <totalsRowFormula>COUNTIF(Table1[Uncertain],"=Y")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0C624A94-EA83-404E-9423-EF026D2BBE4F}" name="CV" dataDxfId="0">
+      <calculatedColumnFormula>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1320,11 +1373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1391,7 @@
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1363,8 +1416,11 @@
       <c r="H1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1390,8 +1446,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>3.9046230737192877E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1417,8 +1477,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>3.7414965986394509E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1444,8 +1508,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.13207131851199649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1471,8 +1539,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>5.8309037900874695E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1498,8 +1570,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.18902380418415407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1525,8 +1601,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.17440649729279467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1552,8 +1632,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.37398148381725993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1579,8 +1663,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>1683348.4986350446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1606,8 +1694,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>2517746.2289262894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1633,8 +1725,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>181.73692834772831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1660,8 +1756,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>1261070.4659221126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1687,8 +1787,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.22023197768315964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1714,8 +1818,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.26301218161683276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1741,8 +1849,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.13446643717728057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1768,8 +1880,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>5.3564732979806053E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1795,8 +1911,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.23461072438288469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1822,8 +1942,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>6.5681444991789822E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1849,8 +1973,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>7.8788577577923818E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1876,8 +2004,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>1412244.8979591727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1903,8 +2035,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>4055468.3411825509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1930,8 +2066,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>8033395.1762522748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1957,8 +2097,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>8518586.0058308523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1984,8 +2128,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>410997.73242555273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2011,8 +2159,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>3876410.8995552906</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2038,8 +2190,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>4665379.6653796379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2065,8 +2221,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.57261739647315246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2092,8 +2252,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.80049261068877553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2119,8 +2283,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>551712.21030748368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2146,8 +2314,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>1292423.0465663844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2173,8 +2345,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>3104831.6762601468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2200,8 +2376,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.6453290618573011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2227,8 +2407,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>207394.64616887757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2254,8 +2438,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>5234906.4625850003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -2281,8 +2469,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>5.7219149341979775E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -2308,8 +2500,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>5999885.9879146824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2335,8 +2531,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>1879359.3386720307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -2362,8 +2562,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.10109599395313677</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2389,8 +2593,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.12466525071567092</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2416,8 +2624,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>5.2598358931201336E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2443,8 +2655,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.14888517684653932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -2470,8 +2686,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.1461264117297405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -2497,8 +2717,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>7.9317441262219138E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -2524,8 +2748,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.25893816173085782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2551,8 +2779,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>6.2851227447500754E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -2578,8 +2810,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>9.6482580699288972E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -2605,8 +2841,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.34919705587152899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -2632,8 +2872,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>8.7383019506144993E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -2659,8 +2903,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.14030612244897961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2686,8 +2934,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>6339.4533440460336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -2713,8 +2965,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.11541614531647755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -2740,8 +2996,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>9.4708542099474574E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -2767,8 +3027,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>5.22879959437191E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -2794,8 +3058,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.12123661345726415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -2821,8 +3089,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.90858261112572458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -2848,8 +3120,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>3.4961719879589487E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -2875,8 +3151,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.10025844398894936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -2902,8 +3182,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.10567701468115084</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -2929,8 +3213,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.12004801920768307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -2956,8 +3244,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.17538265306122444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -2983,8 +3275,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.12195498471703359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -3010,8 +3306,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.11141504794688961</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -3037,8 +3337,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>5.5754260467073415E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>130</v>
       </c>
@@ -3064,8 +3368,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.20525451559934324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -3091,8 +3399,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>223082.33638214992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -3118,8 +3430,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.28647822765469827</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -3145,8 +3461,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.12755102040816332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -3172,8 +3492,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v>Y</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>325963.7188203609</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -3199,8 +3523,12 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.29290853031860226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -3226,11 +3554,37 @@
         <f>IF(LOG10(Table1[[#This Row],[Fup.Med]])-LOG10(Table1[[#This Row],[Fup.Low]])&gt;3,"Y","")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H71" s="2">
+      <c r="I70" s="1">
+        <f>(Table1[[#This Row],[Fup.High]]-Table1[[#This Row],[Fup.Low]])/1.96/Table1[[#This Row],[Fup.Med]]</f>
+        <v>0.29073081746665153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" s="4">
         <f>COUNTIF(Table1[Uncertain],"=Y")</f>
         <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="2">
+        <f>SUMIF(Table1[Uncertain],"&lt;&gt;Y",Table1[Fup.Med])/COUNTIF(Table1[Uncertain],"&lt;&gt;Y")</f>
+        <v>6.0657586956521722E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="2">
+        <f>SUMIF(Table1[Uncertain],"&lt;&gt;Y",Table1[CV])/COUNTIF(Table1[Uncertain],"&lt;&gt;Y")</f>
+        <v>0.16064448643194726</v>
       </c>
     </row>
   </sheetData>
